--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\UNSW-CSE-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBE0639-67A5-4BDA-A20E-25D60C17DDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8435BD8A-BF83-490E-8BD1-8388716D71B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3225" windowWidth="18240" windowHeight="28440" activeTab="1" xr2:uid="{074E0954-3D23-47BB-BDB8-C06D1F30BE9F}"/>
+    <workbookView xWindow="11460" yWindow="4215" windowWidth="13500" windowHeight="13305" activeTab="1" xr2:uid="{074E0954-3D23-47BB-BDB8-C06D1F30BE9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="245">
   <si>
     <t>TS0</t>
   </si>
@@ -256,6 +256,9 @@
     <t>Ubiquiti UniFi UAP</t>
   </si>
   <si>
+    <t>DUT</t>
+  </si>
+  <si>
     <t>Simulate network traffic</t>
   </si>
   <si>
@@ -274,18 +277,6 @@
     <t>Network gateway</t>
   </si>
   <si>
-    <t>IoT – Internet of Things</t>
-  </si>
-  <si>
-    <t>UGC – User Generated Content</t>
-  </si>
-  <si>
-    <t>PII - Personal Identifiable Information</t>
-  </si>
-  <si>
-    <t>DUT – Device Under Test</t>
-  </si>
-  <si>
     <t>SDK</t>
   </si>
   <si>
@@ -311,13 +302,497 @@
   </si>
   <si>
     <t>WPA</t>
+  </si>
+  <si>
+    <t>IoT</t>
+  </si>
+  <si>
+    <t>Internet of Things</t>
+  </si>
+  <si>
+    <t>UGC</t>
+  </si>
+  <si>
+    <t>User Generated Content</t>
+  </si>
+  <si>
+    <t>PII</t>
+  </si>
+  <si>
+    <t>Personal Identifiable Information</t>
+  </si>
+  <si>
+    <t>Software Development Kit</t>
+  </si>
+  <si>
+    <t>System on Chip</t>
+  </si>
+  <si>
+    <t>Embedded MultiMedia Card</t>
+  </si>
+  <si>
+    <t>Network Interface Card</t>
+  </si>
+  <si>
+    <t>Man In The Middle</t>
+  </si>
+  <si>
+    <t>Serice Set Identifier</t>
+  </si>
+  <si>
+    <t>Media Access Control</t>
+  </si>
+  <si>
+    <t>Wired Equivalent Privacy</t>
+  </si>
+  <si>
+    <t>Wi-Fi Protected Access</t>
+  </si>
+  <si>
+    <t>Abbreviation</t>
+  </si>
+  <si>
+    <t>Expansion</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Specifier</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Network Security</t>
+  </si>
+  <si>
+    <t>Data Classification</t>
+  </si>
+  <si>
+    <t>Meaning</t>
+  </si>
+  <si>
+    <t>Relating to a device being tested</t>
+  </si>
+  <si>
+    <t>Onboard storage</t>
+  </si>
+  <si>
+    <t>Classification of network-connected devices</t>
+  </si>
+  <si>
+    <t>Unique network device identifier</t>
+  </si>
+  <si>
+    <t>Hardware to connect a device to a network</t>
+  </si>
+  <si>
+    <t>Data that could identify an individual</t>
+  </si>
+  <si>
+    <t>Building blocks for software interoperability</t>
+  </si>
+  <si>
+    <t>An entire system integrated into a single chip</t>
+  </si>
+  <si>
+    <t>Wi-Fi network name</t>
+  </si>
+  <si>
+    <t>Intercepted communication</t>
+  </si>
+  <si>
+    <t>Data created by the user</t>
+  </si>
+  <si>
+    <t>Network security algorithm</t>
+  </si>
+  <si>
+    <t>uname -a</t>
+  </si>
+  <si>
+    <t>Linux rockrobo 3.4.39 #1 SMP PREEMPT Wed Mar 25 20:47:59 CST 2020 armv7l armv7l armv7l GNU/Linux</t>
+  </si>
+  <si>
+    <t>ldd --version ldd</t>
+  </si>
+  <si>
+    <t>ldd (Ubuntu EGLIBC 2.19-0ubuntu6.6) 2.19</t>
+  </si>
+  <si>
+    <t>cat /etc/os-release</t>
+  </si>
+  <si>
+    <t>cat /etc/OS_VERSION</t>
+  </si>
+  <si>
+    <t>NAME="Ubuntu"
+VERSION="14.04.3 LTS, Trusty Tahr"
+ID=ubuntu
+ID_LIKE=debian
+PRETTY_NAME="Ubuntu 14.04.3 LTS"
+VERSION_ID="14.04"
+HOME_URL="http://www.ubuntu.com/"
+SUPPORT_URL="http://help.ubuntu.com/"
+BUG_REPORT_URL="http://bugs.launchpad.net/ubuntu/"
+ROBOROCK_VERSION=3.5.4_1558</t>
+  </si>
+  <si>
+    <t>ro.product.device=MI1558_TANOS_MP_S2020032500REL_M3.3.0_RELEASE_20200325-204847
+ro.build.display.id=TANOS_MP_R16_RELEASE_20200325-204847
+ro.sys.cputype=R16.STM32.A3.G1
+ro.build.version.release=1558
+ro.build.date.utc=1585140527</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Upgrade</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>Disassociation</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>AppProxy</t>
+  </si>
+  <si>
+    <t>RoboController</t>
+  </si>
+  <si>
+    <t>rr_loader</t>
+  </si>
+  <si>
+    <t>WatchDoge</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>rrlogd</t>
+  </si>
+  <si>
+    <t>rriot_tuya</t>
+  </si>
+  <si>
+    <t>Tuya cloud communications bridge</t>
+  </si>
+  <si>
+    <t>Device log manager</t>
+  </si>
+  <si>
+    <t>System health and process monitor</t>
+  </si>
+  <si>
+    <t>Central management</t>
+  </si>
+  <si>
+    <t>Vacuum cleaner logic</t>
+  </si>
+  <si>
+    <t>Sensor and cleaning driver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/var/log/upstart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/var/log/boot.log </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/var/log/bootdmesg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/var/log/dmesg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/var/log/faillog </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/var/log/kern.log </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/var/log/lastlog </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/var/log/rr_try_mount.log </t>
+  </si>
+  <si>
+    <t>/var/log/syslog</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>/dev/jiffies</t>
+  </si>
+  <si>
+    <t>/proc/interrupts</t>
+  </si>
+  <si>
+    <t>/proc/softirqs</t>
+  </si>
+  <si>
+    <t>dmesg</t>
+  </si>
+  <si>
+    <t>/proc/meminfo</t>
+  </si>
+  <si>
+    <t>/proc/vmstat</t>
+  </si>
+  <si>
+    <t>/proc/slabinfo</t>
+  </si>
+  <si>
+    <t>/proc/zoneinfo</t>
+  </si>
+  <si>
+    <t>/proc/pagetypeinfo</t>
+  </si>
+  <si>
+    <t>/sys/devices/system/cpu/cpu0/cpufreq/stats/time_in_state</t>
+  </si>
+  <si>
+    <t>/sys/devices/system/cpu/cpu1/cpufreq/stats/time_in_state</t>
+  </si>
+  <si>
+    <t>/sys/devices/system/cpu/cpu2/cpufreq/stats/time_in_state</t>
+  </si>
+  <si>
+    <t>/sys/devices/system/cpu/cpu3/cpufreq/stats/time_in_state</t>
+  </si>
+  <si>
+    <t>df -h</t>
+  </si>
+  <si>
+    <t>lsof /</t>
+  </si>
+  <si>
+    <t>lsof /dev</t>
+  </si>
+  <si>
+    <t>lsof /tmp</t>
+  </si>
+  <si>
+    <t>lsof /run</t>
+  </si>
+  <si>
+    <t>lsof /run/lock</t>
+  </si>
+  <si>
+    <t>lsof /run/shm</t>
+  </si>
+  <si>
+    <t>lsof /mnt/updbuf</t>
+  </si>
+  <si>
+    <t>lsof /mnt/data</t>
+  </si>
+  <si>
+    <t>lsof /mnt/reserve</t>
+  </si>
+  <si>
+    <t>lsof /mnt/default</t>
+  </si>
+  <si>
+    <t>/sys/devices/platform/uart.0/ctrl_info</t>
+  </si>
+  <si>
+    <t>/sys/devices/platform/uart.0/status</t>
+  </si>
+  <si>
+    <t>/sys/devices/platform/uart.1/ctrl_info</t>
+  </si>
+  <si>
+    <t>/sys/devices/platform/uart.1/status</t>
+  </si>
+  <si>
+    <t>/sys/devices/platform/uart.2/ctrl_info</t>
+  </si>
+  <si>
+    <t>/sys/devices/platform/uart.2/status</t>
+  </si>
+  <si>
+    <t>https://github.com/marcelrv/XiaomiRobotVacuumProtocol/blob/master/RRMapFile/RRFileFormat.md</t>
+  </si>
+  <si>
+    <t>SYSUPD_updater_pid*.log</t>
+  </si>
+  <si>
+    <t>SYSUPD_normal_updater.tar.gz</t>
+  </si>
+  <si>
+    <t>mt_test.tar.ss.gz</t>
+  </si>
+  <si>
+    <t>/dev/shm/*.tmp.log</t>
+  </si>
+  <si>
+    <t>watchdog.log</t>
+  </si>
+  <si>
+    <t>rrlog.log</t>
+  </si>
+  <si>
+    <t>miio.log</t>
+  </si>
+  <si>
+    <t>*.ppm</t>
+  </si>
+  <si>
+    <t>/mnt/data/rockrobo/{M,m}t*</t>
+  </si>
+  <si>
+    <t>varlog.tar.gz (itself)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/mnt/data/rockrobo/noupload/uart_test* </t>
+  </si>
+  <si>
+    <t>boot_reason</t>
+  </si>
+  <si>
+    <t>crashlog</t>
+  </si>
+  <si>
+    <t>tar_extra_file.sh</t>
+  </si>
+  <si>
+    <t>misc.sh</t>
+  </si>
+  <si>
+    <t>Archive</t>
+  </si>
+  <si>
+    <t>Contents</t>
+  </si>
+  <si>
+    <t>varlog.tar.gz</t>
+  </si>
+  <si>
+    <t>misc.gz</t>
+  </si>
+  <si>
+    <t>watchdog.gz</t>
+  </si>
+  <si>
+    <t>rrlog.gz</t>
+  </si>
+  <si>
+    <t>miio.gz</t>
+  </si>
+  <si>
+    <t>SLAMMAP.tar.gz</t>
+  </si>
+  <si>
+    <t>uarttest.tar.ss.gz</t>
+  </si>
+  <si>
+    <t>top*.gz</t>
+  </si>
+  <si>
+    <t>boot_reason.gz</t>
+  </si>
+  <si>
+    <t>crashlog.gz</t>
+  </si>
+  <si>
+    <t>SSLKEYLOGFILE</t>
+  </si>
+  <si>
+    <t>Supports UDP traffic</t>
+  </si>
+  <si>
+    <t>Supports application-level encryption</t>
+  </si>
+  <si>
+    <t>Supports other TCP traffic</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Frida</t>
+  </si>
+  <si>
+    <t>Manual Patching</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>✓</t>
+  </si>
+  <si>
+    <t>Always respected by application</t>
+  </si>
+  <si>
+    <t>✗</t>
+  </si>
+  <si>
+    <t>(Straight-forward) System-level configuration possible</t>
+  </si>
+  <si>
+    <t>Burp Suite</t>
+  </si>
+  <si>
+    <t>Endpoint</t>
+  </si>
+  <si>
+    <t>Protocol</t>
+  </si>
+  <si>
+    <t>m2.tuyaeu.com</t>
+  </si>
+  <si>
+    <t>MQTT</t>
+  </si>
+  <si>
+    <t>Inbound requests</t>
+  </si>
+  <si>
+    <t>a2.tuyaeu.com</t>
+  </si>
+  <si>
+    <t>HTTPS</t>
+  </si>
+  <si>
+    <t>Outbound requests</t>
+  </si>
+  <si>
+    <t>awsde0.fds.api.xiaomi.com</t>
+  </si>
+  <si>
+    <t>FDS</t>
+  </si>
+  <si>
+    <t>Logs upload</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +804,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -365,6 +848,54 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -374,7 +905,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -382,28 +913,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1058,7 +1636,7 @@
         <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1069,7 +1647,7 @@
         <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1080,7 +1658,7 @@
         <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1091,7 +1669,7 @@
         <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1102,7 +1680,7 @@
         <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1113,7 +1691,7 @@
         <v>69</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1127,86 +1705,956 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE562A70-55B8-4ED3-B59F-0387925B6133}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A16"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109:D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32" style="11" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="11"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="B9" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-    </row>
-    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-    </row>
-    <row r="9" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="B10" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="B11" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="B13" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>90</v>
+      <c r="B14" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="C49" s="17"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" s="17"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C51" s="17"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="17"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="17"/>
+      <c r="B53" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" s="17"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" s="17"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="17"/>
+      <c r="B55" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" s="17"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C56" s="17"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="17"/>
+      <c r="B57" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C57" s="17"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="17"/>
+      <c r="B58" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C58" s="17"/>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C59" s="17"/>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C60" s="17"/>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="17"/>
+      <c r="B61" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61" s="17"/>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="17"/>
+      <c r="B62" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C62" s="17"/>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="17"/>
+      <c r="B63" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C63" s="17"/>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="17"/>
+      <c r="B64" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C64" s="17"/>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="17"/>
+      <c r="B65" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C65" s="17"/>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="17"/>
+      <c r="B66" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C66" s="17"/>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="17"/>
+      <c r="B67" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C67" s="17"/>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="17"/>
+      <c r="B68" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C68" s="17"/>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="17"/>
+      <c r="B69" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C69" s="17"/>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="17"/>
+      <c r="B70" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C70" s="17"/>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="17"/>
+      <c r="B71" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C71" s="17"/>
+    </row>
+    <row r="72" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="17"/>
+      <c r="B72" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C72" s="17"/>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="17"/>
+      <c r="B73" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C73" s="17"/>
+    </row>
+    <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="17"/>
+      <c r="B74" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C74" s="17"/>
+    </row>
+    <row r="75" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="17"/>
+      <c r="B75" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C75" s="17"/>
+    </row>
+    <row r="76" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="17"/>
+      <c r="B76" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C76" s="17"/>
+    </row>
+    <row r="77" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="17"/>
+      <c r="B77" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C77" s="17"/>
+    </row>
+    <row r="78" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="17"/>
+      <c r="B78" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C78" s="17"/>
+    </row>
+    <row r="79" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="17"/>
+      <c r="B79" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C79" s="17"/>
+    </row>
+    <row r="80" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="17"/>
+      <c r="B80" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C80" s="17"/>
+    </row>
+    <row r="81" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="17"/>
+      <c r="B81" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C81" s="17"/>
+    </row>
+    <row r="82" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="17"/>
+      <c r="B82" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C82" s="17"/>
+    </row>
+    <row r="83" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="17"/>
+      <c r="B83" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C83" s="17"/>
+    </row>
+    <row r="84" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="17"/>
+      <c r="B84" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C84" s="17"/>
+    </row>
+    <row r="85" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="17"/>
+      <c r="B85" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C85" s="17"/>
+    </row>
+    <row r="86" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="17"/>
+      <c r="B86" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C86" s="17"/>
+    </row>
+    <row r="87" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="17"/>
+      <c r="B87" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C87" s="17"/>
+    </row>
+    <row r="88" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="17"/>
+      <c r="B88" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C88" s="17"/>
+    </row>
+    <row r="89" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="17"/>
+      <c r="B89" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C89" s="17"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C90" s="17"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C91" s="17"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C92" s="17"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B94" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C94" s="17"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C95" s="17"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C96" s="17"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C97" s="17"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C99" s="17"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="C100" s="17"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B101" s="17"/>
+      <c r="C101" s="17"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="17"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="17"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="17"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="17"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="17"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="17"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="17"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="17"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="17"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="17"/>
+    </row>
+    <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="109" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C109" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="D109" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="C110" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="D110" s="25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C111" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="D111" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="C112" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="D112" s="25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B118" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D17">
+    <sortCondition ref="A2:A17"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="C112" r:id="rId1" display="http://docs.api.xiaomi.com/en/fds/" xr:uid="{FF13812F-181C-456F-9371-262B40B932A0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>